--- a/Selectors_Practice1/FakeNameGenerator.xlsx
+++ b/Selectors_Practice1/FakeNameGenerator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saima\Documents\UiPath\Selectors_Practice1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Selectors_Practice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20132FBE-0E42-4667-82A9-B17D58D4E074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230085D9-5AEA-4764-84A1-C95840AA67BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{072145FE-E2FA-4347-9601-45CAA672DCCC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -54,163 +54,166 @@
     <t>ZipCode</t>
   </si>
   <si>
-    <t>Marsha A Blood</t>
-  </si>
-  <si>
-    <t>318-392-4790</t>
-  </si>
-  <si>
-    <t>janice2004@gmail.com</t>
-  </si>
-  <si>
-    <t>Alexandria</t>
+    <t xml:space="preserve"> Georgia(GA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Jersey(NJ)</t>
+  </si>
+  <si>
+    <t>Ann M Krell</t>
+  </si>
+  <si>
+    <t>302-380-5778</t>
+  </si>
+  <si>
+    <t>king.kirli9@hotmail.com</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delaware(DE)</t>
+  </si>
+  <si>
+    <t>Anna J Leininger</t>
+  </si>
+  <si>
+    <t>401-385-6813</t>
+  </si>
+  <si>
+    <t>davin.schinn@yahoo.com</t>
+  </si>
+  <si>
+    <t>West Warwick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhode Island(RI)</t>
+  </si>
+  <si>
+    <t>Bridgette R Hardy</t>
+  </si>
+  <si>
+    <t>732-316-1870</t>
+  </si>
+  <si>
+    <t>francisca.osins@gmail.com</t>
+  </si>
+  <si>
+    <t>Sayreville</t>
+  </si>
+  <si>
+    <t>Bruce M Williams</t>
+  </si>
+  <si>
+    <t>740-412-1193</t>
+  </si>
+  <si>
+    <t>karley2003@hotmail.com</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ohio(OH)</t>
+  </si>
+  <si>
+    <t>Carmen E Thomas</t>
+  </si>
+  <si>
+    <t>225-327-7791</t>
+  </si>
+  <si>
+    <t>madge_dick2@yahoo.com</t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
   </si>
   <si>
     <t xml:space="preserve"> Louisiana(LA)</t>
   </si>
   <si>
-    <t>Daniel J Kincheloe</t>
-  </si>
-  <si>
-    <t>229-394-9750</t>
-  </si>
-  <si>
-    <t>martina2000@gmail.com</t>
-  </si>
-  <si>
-    <t>Albany</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Georgia(GA)</t>
-  </si>
-  <si>
-    <t>Daniel E McLellan</t>
-  </si>
-  <si>
-    <t>904-949-5562</t>
-  </si>
-  <si>
-    <t>isadore1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Mandarin</t>
+    <t>James S Tomlinson</t>
+  </si>
+  <si>
+    <t>770-379-2616</t>
+  </si>
+  <si>
+    <t>hobart.wilderm@gmail.com</t>
+  </si>
+  <si>
+    <t>Dunwoody</t>
+  </si>
+  <si>
+    <t>Johnny B William</t>
+  </si>
+  <si>
+    <t>863-694-7419</t>
+  </si>
+  <si>
+    <t>wilson2017@gmail.com</t>
+  </si>
+  <si>
+    <t>Avon Park</t>
   </si>
   <si>
     <t xml:space="preserve"> Florida(FL)</t>
   </si>
   <si>
-    <t>Jorge M Clark</t>
-  </si>
-  <si>
-    <t>910-379-0360</t>
-  </si>
-  <si>
-    <t>isaias_schu@gmail.com</t>
-  </si>
-  <si>
-    <t>Fayetteville</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> North Carolina(NC)</t>
-  </si>
-  <si>
-    <t>Camilla R Ohara</t>
-  </si>
-  <si>
-    <t>707-635-8800</t>
-  </si>
-  <si>
-    <t>alexandro.hagen@gmail.com</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> California(CA)</t>
-  </si>
-  <si>
-    <t>Jose R Hutchinson</t>
-  </si>
-  <si>
-    <t>907-234-1038</t>
-  </si>
-  <si>
-    <t>john2004@yahoo.com</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alaska(AK)</t>
-  </si>
-  <si>
-    <t>Victor L Davis</t>
-  </si>
-  <si>
-    <t>910-658-1483</t>
-  </si>
-  <si>
-    <t>dannie2003@yahoo.com</t>
-  </si>
-  <si>
-    <t>Malcolm N Johnson</t>
-  </si>
-  <si>
-    <t>801-380-7370</t>
-  </si>
-  <si>
-    <t>marcelo.sip@hotmail.com</t>
-  </si>
-  <si>
-    <t>Provo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Utah(UT)</t>
-  </si>
-  <si>
-    <t>Sophia J Evans</t>
-  </si>
-  <si>
-    <t>630-592-2211</t>
-  </si>
-  <si>
-    <t>lily2012@gmail.com</t>
-  </si>
-  <si>
-    <t>Arlington Heights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Illinois(IL)</t>
-  </si>
-  <si>
-    <t>Goldie A Jensen</t>
-  </si>
-  <si>
-    <t>802-281-3660</t>
-  </si>
-  <si>
-    <t>general.effer@gmail.com</t>
-  </si>
-  <si>
-    <t>White River Junction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vermont(VT)</t>
-  </si>
-  <si>
-    <t>Jessica R Davis</t>
-  </si>
-  <si>
-    <t>812-451-2629</t>
-  </si>
-  <si>
-    <t>bertrand_farre@yahoo.com</t>
-  </si>
-  <si>
-    <t>Evansville</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indiana(IN)</t>
+    <t>Kenneth A Morrill</t>
+  </si>
+  <si>
+    <t>912-288-6673</t>
+  </si>
+  <si>
+    <t>icie1982@hotmail.com</t>
+  </si>
+  <si>
+    <t>Waycross</t>
+  </si>
+  <si>
+    <t>Meghan J Neese</t>
+  </si>
+  <si>
+    <t>304-675-9295</t>
+  </si>
+  <si>
+    <t>jimmy20062001@yahoo.com</t>
+  </si>
+  <si>
+    <t>Point Pleasant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> West Virginia(WV)</t>
+  </si>
+  <si>
+    <t>Melinda P Reynolds</t>
+  </si>
+  <si>
+    <t>702-387-6156</t>
+  </si>
+  <si>
+    <t>porter_ra4@yahoo.com</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nevada(NV)</t>
+  </si>
+  <si>
+    <t>Tosha G Perkins</t>
+  </si>
+  <si>
+    <t>316-208-4635</t>
+  </si>
+  <si>
+    <t>stacey2017@gmail.com</t>
+  </si>
+  <si>
+    <t>Wichita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kansas(KS)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,140 +608,140 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>24440</v>
+        <v>25502</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>71301</v>
+        <v>19103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>35106</v>
+        <v>20057</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>31701</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>33488</v>
+        <v>26468</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>32223</v>
+        <v>8879</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
-        <v>30758</v>
+        <v>33834</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>28306</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>26640</v>
+        <v>23036</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>95814</v>
+        <v>70802</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
-        <v>22333</v>
+        <v>23355</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>99603</v>
+        <v>30338</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,111 +752,111 @@
         <v>38</v>
       </c>
       <c r="C8" s="1">
-        <v>20772</v>
+        <v>26030</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G8">
-        <v>28301</v>
+        <v>33825</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
-        <v>30365</v>
+        <v>29227</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>84603</v>
+        <v>31501</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
-        <v>26444</v>
+        <v>26052</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>60005</v>
+        <v>25550</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
-        <v>31216</v>
+        <v>30667</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <v>5001</v>
+        <v>89101</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1">
-        <v>31784</v>
+        <v>36615</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12">
-        <v>47708</v>
+        <v>67213</v>
       </c>
     </row>
   </sheetData>
